--- a/tables/error-compare.xlsx
+++ b/tables/error-compare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\infer\code\interp\code\interp5DOF-paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sterg\Documents\GitHub\sgbaird-5DOF\posterior-sampling\code\egprm\code\interp\code\interp5DOF-paper\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE435C23-CFFF-480B-BDE8-046EF71FA9D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C7AAEC-57A2-450B-BC22-3990D4C8CCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FFA48DE-A732-4E48-AC34-6AA140314E0A}"/>
   </bookViews>
@@ -288,78 +288,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -520,6 +448,78 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,10 +539,10 @@
   <autoFilter ref="K2:R10" xr:uid="{34723225-B821-40D5-8CA0-E779B3D75340}"/>
   <tableColumns count="8">
     <tableColumn id="8" xr3:uid="{8750A65A-26A8-4CAD-9B6B-CE55F671A29F}" name="Column8"/>
-    <tableColumn id="6" xr3:uid="{5320CEE6-96B7-42B8-BB96-3AE93C04FFFF}" name="Column7" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{5320CEE6-96B7-42B8-BB96-3AE93C04FFFF}" name="Column7" dataDxfId="10">
       <calculatedColumnFormula>C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CE715634-CEAE-4F5C-BE92-319D9E9C6D95}" name="Column1" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{CE715634-CEAE-4F5C-BE92-319D9E9C6D95}" name="Column1" dataDxfId="9">
       <calculatedColumnFormula>D3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{857359D7-9BF3-4628-AEC1-B8C24263A700}" name="Column2">
@@ -566,29 +566,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50286348-A0AD-4367-867A-FF703B492F79}" name="Table2" displayName="Table2" ref="K13:R21" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50286348-A0AD-4367-867A-FF703B492F79}" name="Table2" displayName="Table2" ref="K13:R21" totalsRowShown="0" dataDxfId="8">
   <autoFilter ref="K13:R21" xr:uid="{62E6D853-2620-453D-94A0-2A9CC9A67D6A}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{173648D3-E346-42E7-9C09-48B47A858C91}" name="Column8" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{0BAC1C4D-F447-45F2-99B0-C1682AB28721}" name="Column7" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{173648D3-E346-42E7-9C09-48B47A858C91}" name="Column8" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{0BAC1C4D-F447-45F2-99B0-C1682AB28721}" name="Column7" dataDxfId="6">
       <calculatedColumnFormula>C14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A9D0C93B-0EA4-4493-91CC-FEFD3AE97CC7}" name="Column1" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{A9D0C93B-0EA4-4493-91CC-FEFD3AE97CC7}" name="Column1" dataDxfId="5">
       <calculatedColumnFormula>D14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{3314CF19-98B3-4633-8C5D-306394963DCF}" name="Column2" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{3314CF19-98B3-4633-8C5D-306394963DCF}" name="Column2" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(,TRUE,A14,E14,J14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{62BC181E-E540-457E-8A83-80B02351069D}" name="Column3" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{62BC181E-E540-457E-8A83-80B02351069D}" name="Column3" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(,TRUE,$A14,F14,$J14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{288D3A6C-7636-4CB2-9C87-1538FDE2B6CF}" name="Column4" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{288D3A6C-7636-4CB2-9C87-1538FDE2B6CF}" name="Column4" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(,TRUE,$A14,G14,$J14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CDAAB1AB-3350-49D3-9504-F6B12A67CFE7}" name="Column5" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{CDAAB1AB-3350-49D3-9504-F6B12A67CFE7}" name="Column5" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(,TRUE,$A14,H14,$J14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F016F048-ABEE-4E9F-8006-40199839670A}" name="Column6" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{F016F048-ABEE-4E9F-8006-40199839670A}" name="Column6" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.CONCAT($A14,I14*100,$J14)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -896,7 +896,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,23 +1051,23 @@
         <v>\acrshort{brk}</v>
       </c>
       <c r="N4" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A4,E4,$J4)</f>
+        <f t="shared" ref="N4:Q9" si="3">_xlfn.TEXTJOIN(,TRUE,$A4,E4,$J4)</f>
         <v>\num{50000}</v>
       </c>
       <c r="O4" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A4,F4,$J4)</f>
+        <f t="shared" si="3"/>
         <v>\num{0.0145}</v>
       </c>
       <c r="P4" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A4,G4,$J4)</f>
+        <f t="shared" si="3"/>
         <v>\num{0.0955}</v>
       </c>
       <c r="Q4" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A4,H4,$J4)</f>
+        <f t="shared" si="3"/>
         <v>\num{0.081}</v>
       </c>
       <c r="R4" t="str">
-        <f>_xlfn.CONCAT($A4,I4*100,$J4)</f>
+        <f t="shared" ref="R4:R9" si="4">_xlfn.CONCAT($A4,I4*100,$J4)</f>
         <v>\num{84.8}</v>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" ref="I5:I9" si="3">ROUND(H5/G5,3)</f>
+        <f t="shared" ref="I5:I9" si="5">ROUND(H5/G5,3)</f>
         <v>0.84799999999999998</v>
       </c>
       <c r="J5" t="s">
@@ -1113,23 +1113,23 @@
         <v>\acrshort{brk}</v>
       </c>
       <c r="N5" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A5,E5,$J5)</f>
+        <f t="shared" si="3"/>
         <v>\num{50000}</v>
       </c>
       <c r="O5" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A5,F5,$J5)</f>
+        <f t="shared" si="3"/>
         <v>\num{0.0145}</v>
       </c>
       <c r="P5" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A5,G5,$J5)</f>
+        <f t="shared" si="3"/>
         <v>\num{0.0955}</v>
       </c>
       <c r="Q5" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A5,H5,$J5)</f>
+        <f t="shared" si="3"/>
         <v>\num{0.081}</v>
       </c>
       <c r="R5" t="str">
-        <f>_xlfn.CONCAT($A5,I5*100,$J5)</f>
+        <f t="shared" si="4"/>
         <v>\num{84.8}</v>
       </c>
     </row>
@@ -1147,18 +1147,18 @@
         <v>50000</v>
       </c>
       <c r="F6">
-        <v>2.2499999999999999E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="G6">
         <v>9.5500000000000002E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>7.3000000000000009E-2</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="3"/>
-        <v>0.76400000000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.76600000000000001</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
@@ -1175,24 +1175,24 @@
         <v>\acrshort{brk}</v>
       </c>
       <c r="N6" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A6,E6,$J6)</f>
+        <f t="shared" si="3"/>
         <v>\num{50000}</v>
       </c>
       <c r="O6" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A6,F6,$J6)</f>
-        <v>\num{0.0225}</v>
+        <f t="shared" si="3"/>
+        <v>\num{0.0223}</v>
       </c>
       <c r="P6" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A6,G6,$J6)</f>
+        <f t="shared" si="3"/>
         <v>\num{0.0955}</v>
       </c>
       <c r="Q6" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A6,H6,$J6)</f>
-        <v>\num{0.073}</v>
+        <f t="shared" si="3"/>
+        <v>\num{0.0732}</v>
       </c>
       <c r="R6" t="str">
-        <f>_xlfn.CONCAT($A6,I6*100,$J6)</f>
-        <v>\num{76.4}</v>
+        <f t="shared" si="4"/>
+        <v>\num{76.6}</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1209,18 +1209,18 @@
         <v>50000</v>
       </c>
       <c r="F7">
-        <v>3.0700000000000002E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="G7">
         <v>9.5500000000000002E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>6.4799999999999996E-2</v>
+        <v>6.4700000000000008E-2</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="3"/>
-        <v>0.67900000000000005</v>
+        <f t="shared" si="5"/>
+        <v>0.67700000000000005</v>
       </c>
       <c r="J7" t="s">
         <v>6</v>
@@ -1237,24 +1237,24 @@
         <v>\acrshort{brk}</v>
       </c>
       <c r="N7" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A7,E7,$J7)</f>
+        <f t="shared" si="3"/>
         <v>\num{50000}</v>
       </c>
       <c r="O7" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A7,F7,$J7)</f>
-        <v>\num{0.0307}</v>
+        <f t="shared" si="3"/>
+        <v>\num{0.0308}</v>
       </c>
       <c r="P7" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A7,G7,$J7)</f>
+        <f t="shared" si="3"/>
         <v>\num{0.0955}</v>
       </c>
       <c r="Q7" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A7,H7,$J7)</f>
-        <v>\num{0.0648}</v>
+        <f t="shared" si="3"/>
+        <v>\num{0.0647}</v>
       </c>
       <c r="R7" t="str">
-        <f>_xlfn.CONCAT($A7,I7*100,$J7)</f>
-        <v>\num{67.9}</v>
+        <f t="shared" si="4"/>
+        <v>\num{67.7}</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1277,11 +1277,11 @@
         <v>6.1699999999999998E-2</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8" si="4">G8-F8</f>
+        <f t="shared" ref="H8" si="6">G8-F8</f>
         <v>2.1199999999999997E-2</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" ref="I8" si="5">ROUND(H8/G8,3)</f>
+        <f t="shared" ref="I8" si="7">ROUND(H8/G8,3)</f>
         <v>0.34399999999999997</v>
       </c>
       <c r="J8" t="s">
@@ -1299,23 +1299,23 @@
         <v>\acrshort{ms} Fe</v>
       </c>
       <c r="N8" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A8,E8,$J8)</f>
+        <f t="shared" si="3"/>
         <v>\num{17176}</v>
       </c>
       <c r="O8" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A8,F8,$J8)</f>
+        <f t="shared" si="3"/>
         <v>\num{0.0405}</v>
       </c>
       <c r="P8" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A8,G8,$J8)</f>
+        <f t="shared" si="3"/>
         <v>\num{0.0617}</v>
       </c>
       <c r="Q8" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A8,H8,$J8)</f>
+        <f t="shared" si="3"/>
         <v>\num{0.0212}</v>
       </c>
       <c r="R8" t="str">
-        <f>_xlfn.CONCAT($A8,I8*100,$J8)</f>
+        <f t="shared" si="4"/>
         <v>\num{34.4}</v>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.21199999999999999</v>
       </c>
       <c r="J9" t="s">
@@ -1361,23 +1361,23 @@
         <v>\acrshort{ms} Fe</v>
       </c>
       <c r="N9" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A9,E9,$J9)</f>
+        <f t="shared" si="3"/>
         <v>\num{17176}</v>
       </c>
       <c r="O9" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A9,F9,$J9)</f>
+        <f t="shared" si="3"/>
         <v>\num{0.0486}</v>
       </c>
       <c r="P9" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A9,G9,$J9)</f>
+        <f t="shared" si="3"/>
         <v>\num{0.0617}</v>
       </c>
       <c r="Q9" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A9,H9,$J9)</f>
+        <f t="shared" si="3"/>
         <v>\num{0.0131}</v>
       </c>
       <c r="R9" t="str">
-        <f>_xlfn.CONCAT($A9,I9*100,$J9)</f>
+        <f t="shared" si="4"/>
         <v>\num{21.2}</v>
       </c>
     </row>
@@ -1505,15 +1505,15 @@
         <v>Method</v>
       </c>
       <c r="L14" s="11" t="str">
-        <f t="shared" ref="L14:L21" si="6">C14</f>
+        <f t="shared" ref="L14:L21" si="8">C14</f>
         <v>Distance</v>
       </c>
       <c r="M14" s="5" t="str">
-        <f>D14</f>
+        <f t="shared" ref="M14:M21" si="9">D14</f>
         <v>Dataset</v>
       </c>
       <c r="N14" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,A14,E14,J14)</f>
+        <f t="shared" ref="N14:N21" si="10">_xlfn.TEXTJOIN(,TRUE,A14,E14,J14)</f>
         <v>\thead{\# \glspl{gb}}</v>
       </c>
       <c r="O14" t="str">
@@ -1547,18 +1547,18 @@
         <v>50000</v>
       </c>
       <c r="F15" s="7">
-        <v>2.18E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="G15">
         <v>0.1283</v>
       </c>
       <c r="H15">
         <f>G15-F15</f>
-        <v>0.1065</v>
+        <v>0.1066</v>
       </c>
       <c r="I15" s="3">
         <f>ROUND(H15/G15,3)</f>
-        <v>0.83</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="J15" t="s">
         <v>6</v>
@@ -1567,32 +1567,32 @@
         <v>35</v>
       </c>
       <c r="L15" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>\acrshort{vfz}</v>
       </c>
       <c r="M15" s="5" t="str">
-        <f>D15</f>
+        <f t="shared" si="9"/>
         <v>\acrshort{brk}</v>
       </c>
       <c r="N15" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,A15,E15,J15)</f>
+        <f t="shared" si="10"/>
         <v>\num{50000}</v>
       </c>
       <c r="O15" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A15,F15,$J15)</f>
-        <v>\num{0.0218}</v>
+        <f t="shared" ref="O15:Q18" si="11">_xlfn.TEXTJOIN(,TRUE,$A15,F15,$J15)</f>
+        <v>\num{0.0217}</v>
       </c>
       <c r="P15" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A15,G15,$J15)</f>
+        <f t="shared" si="11"/>
         <v>\num{0.1283}</v>
       </c>
       <c r="Q15" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A15,H15,$J15)</f>
-        <v>\num{0.1065}</v>
+        <f t="shared" si="11"/>
+        <v>\num{0.1066}</v>
       </c>
       <c r="R15" s="2" t="str">
         <f>_xlfn.CONCAT($A15,I15*100,$J15)</f>
-        <v>\num{83}</v>
+        <v>\num{83.1}</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1609,17 +1609,17 @@
         <v>50000</v>
       </c>
       <c r="F16">
-        <v>2.3800000000000002E-2</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="G16">
         <v>0.1283</v>
       </c>
       <c r="H16">
         <f>G16-F16</f>
-        <v>0.1045</v>
+        <v>0.10439999999999999</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" ref="I16:I21" si="7">ROUND(H16/G16,3)</f>
+        <f t="shared" ref="I16:I21" si="12">ROUND(H16/G16,3)</f>
         <v>0.81399999999999995</v>
       </c>
       <c r="J16" t="s">
@@ -1629,28 +1629,28 @@
         <v>0</v>
       </c>
       <c r="L16" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>\acrshort{vfz}</v>
       </c>
       <c r="M16" s="5" t="str">
-        <f>D16</f>
+        <f t="shared" si="9"/>
         <v>\acrshort{brk}</v>
       </c>
       <c r="N16" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,A16,E16,J16)</f>
+        <f t="shared" si="10"/>
         <v>\num{50000}</v>
       </c>
       <c r="O16" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A16,F16,$J16)</f>
-        <v>\num{0.0238}</v>
+        <f t="shared" si="11"/>
+        <v>\num{0.0239}</v>
       </c>
       <c r="P16" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A16,G16,$J16)</f>
+        <f t="shared" si="11"/>
         <v>\num{0.1283}</v>
       </c>
       <c r="Q16" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A16,H16,$J16)</f>
-        <v>\num{0.1045}</v>
+        <f t="shared" si="11"/>
+        <v>\num{0.1044}</v>
       </c>
       <c r="R16" s="2" t="str">
         <f>_xlfn.CONCAT($A16,I16*100,$J16)</f>
@@ -1671,18 +1671,18 @@
         <v>50000</v>
       </c>
       <c r="F17">
-        <v>3.56E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="G17">
         <v>0.1283</v>
       </c>
       <c r="H17">
         <f>G17-F17</f>
-        <v>9.2700000000000005E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="7"/>
-        <v>0.72299999999999998</v>
+        <f t="shared" si="12"/>
+        <v>0.73299999999999998</v>
       </c>
       <c r="J17" t="s">
         <v>6</v>
@@ -1691,32 +1691,32 @@
         <v>1</v>
       </c>
       <c r="L17" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>\acrshort{vfz}</v>
       </c>
       <c r="M17" s="5" t="str">
-        <f>D17</f>
+        <f t="shared" si="9"/>
         <v>\acrshort{brk}</v>
       </c>
       <c r="N17" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,A17,E17,J17)</f>
+        <f t="shared" si="10"/>
         <v>\num{50000}</v>
       </c>
       <c r="O17" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A17,F17,$J17)</f>
-        <v>\num{0.0356}</v>
+        <f t="shared" si="11"/>
+        <v>\num{0.0343}</v>
       </c>
       <c r="P17" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A17,G17,$J17)</f>
+        <f t="shared" si="11"/>
         <v>\num{0.1283}</v>
       </c>
       <c r="Q17" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A17,H17,$J17)</f>
-        <v>\num{0.0927}</v>
+        <f t="shared" si="11"/>
+        <v>\num{0.094}</v>
       </c>
       <c r="R17" s="2" t="str">
         <f>_xlfn.CONCAT($A17,I17*100,$J17)</f>
-        <v>\num{72.3}</v>
+        <v>\num{73.3}</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -1733,18 +1733,18 @@
         <v>50000</v>
       </c>
       <c r="F18">
-        <v>4.4499999999999998E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="G18">
         <v>0.1283</v>
       </c>
       <c r="H18">
         <f>G18-F18</f>
-        <v>8.3799999999999999E-2</v>
+        <v>8.3499999999999991E-2</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="7"/>
-        <v>0.65300000000000002</v>
+        <f t="shared" si="12"/>
+        <v>0.65100000000000002</v>
       </c>
       <c r="J18" t="s">
         <v>6</v>
@@ -1753,32 +1753,32 @@
         <v>2</v>
       </c>
       <c r="L18" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>\acrshort{vfz}</v>
       </c>
       <c r="M18" s="5" t="str">
-        <f>D18</f>
+        <f t="shared" si="9"/>
         <v>\acrshort{brk}</v>
       </c>
       <c r="N18" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,A18,E18,J18)</f>
+        <f t="shared" si="10"/>
         <v>\num{50000}</v>
       </c>
       <c r="O18" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A18,F18,$J18)</f>
-        <v>\num{0.0445}</v>
+        <f t="shared" si="11"/>
+        <v>\num{0.0448}</v>
       </c>
       <c r="P18" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A18,G18,$J18)</f>
+        <f t="shared" si="11"/>
         <v>\num{0.1283}</v>
       </c>
       <c r="Q18" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,$A18,H18,$J18)</f>
-        <v>\num{0.0838}</v>
+        <f t="shared" si="11"/>
+        <v>\num{0.0835}</v>
       </c>
       <c r="R18" s="2" t="str">
         <f>_xlfn.CONCAT($A18,I18*100,$J18)</f>
-        <v>\num{65.3}</v>
+        <v>\num{65.1}</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1813,15 +1813,15 @@
         <v>27</v>
       </c>
       <c r="L19" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Non-sym</v>
       </c>
       <c r="M19" s="5" t="str">
-        <f>D19</f>
+        <f t="shared" si="9"/>
         <v>\acrshort{ms} Fe</v>
       </c>
       <c r="N19" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,A19,E19,J19)</f>
+        <f t="shared" si="10"/>
         <v>\num{17176}</v>
       </c>
       <c r="O19" s="1" t="str">
@@ -1865,7 +1865,7 @@
         <v>0.12919999999999998</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20" si="8">ROUND(H20/G20,3)</f>
+        <f t="shared" ref="I20" si="13">ROUND(H20/G20,3)</f>
         <v>0.57599999999999996</v>
       </c>
       <c r="J20" t="s">
@@ -1875,15 +1875,15 @@
         <v>35</v>
       </c>
       <c r="L20" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>\acrshort{vfz}</v>
       </c>
       <c r="M20" s="8" t="str">
-        <f>D20</f>
+        <f t="shared" si="9"/>
         <v>\acrshort{ms} Ni</v>
       </c>
       <c r="N20" s="8" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,A20,E20,J20)</f>
+        <f t="shared" si="10"/>
         <v>\num{388}</v>
       </c>
       <c r="O20" s="1" t="str">
@@ -1927,7 +1927,7 @@
         <v>0.12659999999999999</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.56399999999999995</v>
       </c>
       <c r="J21" t="s">
@@ -1937,15 +1937,15 @@
         <v>4</v>
       </c>
       <c r="L21" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>\acrshort{gbo}</v>
       </c>
       <c r="M21" s="5" t="str">
-        <f>D21</f>
+        <f t="shared" si="9"/>
         <v>\acrshort{ms} Ni</v>
       </c>
       <c r="N21" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(,TRUE,A21,E21,J21)</f>
+        <f t="shared" si="10"/>
         <v>\num{388}</v>
       </c>
       <c r="O21" s="1" t="str">
